--- a/output/missing-values-contraceptive.xlsx
+++ b/output/missing-values-contraceptive.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1008" uniqueCount="1008">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1252" uniqueCount="1252">
   <si>
     <t xml:space="preserve">pid</t>
   </si>
@@ -74,6 +74,9 @@
     <t xml:space="preserve">TSH0018</t>
   </si>
   <si>
+    <t xml:space="preserve">TSH0019</t>
+  </si>
+  <si>
     <t xml:space="preserve">TSH0020</t>
   </si>
   <si>
@@ -113,6 +116,9 @@
     <t xml:space="preserve">TSH0067</t>
   </si>
   <si>
+    <t xml:space="preserve">TSH0073</t>
+  </si>
+  <si>
     <t xml:space="preserve">TSH0080</t>
   </si>
   <si>
@@ -173,6 +179,18 @@
     <t xml:space="preserve">TSH0243</t>
   </si>
   <si>
+    <t xml:space="preserve">TSH0266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH0269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH0292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH0297</t>
+  </si>
+  <si>
     <t xml:space="preserve">TSH0321</t>
   </si>
   <si>
@@ -185,6 +203,9 @@
     <t xml:space="preserve">TSH0345</t>
   </si>
   <si>
+    <t xml:space="preserve">TSH0353</t>
+  </si>
+  <si>
     <t xml:space="preserve">TSH0370</t>
   </si>
   <si>
@@ -416,6 +437,9 @@
     <t xml:space="preserve">TSH0696</t>
   </si>
   <si>
+    <t xml:space="preserve">TSH0697</t>
+  </si>
+  <si>
     <t xml:space="preserve">TSH0700</t>
   </si>
   <si>
@@ -659,6 +683,9 @@
     <t xml:space="preserve">TSH0791</t>
   </si>
   <si>
+    <t xml:space="preserve">TSH0792</t>
+  </si>
+  <si>
     <t xml:space="preserve">TSH0793</t>
   </si>
   <si>
@@ -668,6 +695,9 @@
     <t xml:space="preserve">TSH0796</t>
   </si>
   <si>
+    <t xml:space="preserve">TSH0797</t>
+  </si>
+  <si>
     <t xml:space="preserve">TSH0798</t>
   </si>
   <si>
@@ -692,6 +722,9 @@
     <t xml:space="preserve">TSH0806</t>
   </si>
   <si>
+    <t xml:space="preserve">TSH0807</t>
+  </si>
+  <si>
     <t xml:space="preserve">TSH0808</t>
   </si>
   <si>
@@ -737,6 +770,9 @@
     <t xml:space="preserve">TSH0823</t>
   </si>
   <si>
+    <t xml:space="preserve">TSH0824</t>
+  </si>
+  <si>
     <t xml:space="preserve">TSH0825</t>
   </si>
   <si>
@@ -872,6 +908,9 @@
     <t xml:space="preserve">TSH0873</t>
   </si>
   <si>
+    <t xml:space="preserve">TSH0874</t>
+  </si>
+  <si>
     <t xml:space="preserve">TSH0875</t>
   </si>
   <si>
@@ -1025,6 +1064,9 @@
     <t xml:space="preserve">TSH0932</t>
   </si>
   <si>
+    <t xml:space="preserve">TSH0933</t>
+  </si>
+  <si>
     <t xml:space="preserve">TSH0935</t>
   </si>
   <si>
@@ -1037,6 +1079,9 @@
     <t xml:space="preserve">TSH0939</t>
   </si>
   <si>
+    <t xml:space="preserve">TSH0942</t>
+  </si>
+  <si>
     <t xml:space="preserve">TSH0944</t>
   </si>
   <si>
@@ -1106,6 +1151,9 @@
     <t xml:space="preserve">TSH0977</t>
   </si>
   <si>
+    <t xml:space="preserve">TSH0979</t>
+  </si>
+  <si>
     <t xml:space="preserve">TSH0980</t>
   </si>
   <si>
@@ -1580,6 +1628,9 @@
     <t xml:space="preserve">TSH1171</t>
   </si>
   <si>
+    <t xml:space="preserve">TSH1176</t>
+  </si>
+  <si>
     <t xml:space="preserve">TSH1289</t>
   </si>
   <si>
@@ -1643,6 +1694,9 @@
     <t xml:space="preserve">TSH1185</t>
   </si>
   <si>
+    <t xml:space="preserve">TSH1187</t>
+  </si>
+  <si>
     <t xml:space="preserve">TSH1188</t>
   </si>
   <si>
@@ -1886,6 +1940,9 @@
     <t xml:space="preserve">TSH1275</t>
   </si>
   <si>
+    <t xml:space="preserve">TSH1276</t>
+  </si>
+  <si>
     <t xml:space="preserve">TSH1277</t>
   </si>
   <si>
@@ -1907,9 +1964,15 @@
     <t xml:space="preserve">TSH1283</t>
   </si>
   <si>
+    <t xml:space="preserve">TSH1284</t>
+  </si>
+  <si>
     <t xml:space="preserve">TSH1285</t>
   </si>
   <si>
+    <t xml:space="preserve">TSH1286</t>
+  </si>
+  <si>
     <t xml:space="preserve">TSH1287</t>
   </si>
   <si>
@@ -2036,6 +2099,9 @@
     <t xml:space="preserve">TSH1337</t>
   </si>
   <si>
+    <t xml:space="preserve">TSH1339</t>
+  </si>
+  <si>
     <t xml:space="preserve">TSH1340</t>
   </si>
   <si>
@@ -2282,6 +2348,9 @@
     <t xml:space="preserve">TSH1432</t>
   </si>
   <si>
+    <t xml:space="preserve">TSH1433</t>
+  </si>
+  <si>
     <t xml:space="preserve">TSH1434</t>
   </si>
   <si>
@@ -2306,9 +2375,15 @@
     <t xml:space="preserve">TSH1442</t>
   </si>
   <si>
+    <t xml:space="preserve">TSH1443</t>
+  </si>
+  <si>
     <t xml:space="preserve">TSH1444</t>
   </si>
   <si>
+    <t xml:space="preserve">TSH1445</t>
+  </si>
+  <si>
     <t xml:space="preserve">TSH1447</t>
   </si>
   <si>
@@ -2321,15 +2396,24 @@
     <t xml:space="preserve">TSH1451</t>
   </si>
   <si>
+    <t xml:space="preserve">TSH1452</t>
+  </si>
+  <si>
     <t xml:space="preserve">TSH1454</t>
   </si>
   <si>
+    <t xml:space="preserve">TSH1453</t>
+  </si>
+  <si>
     <t xml:space="preserve">TSH1456</t>
   </si>
   <si>
     <t xml:space="preserve">TSH1457</t>
   </si>
   <si>
+    <t xml:space="preserve">TSH1458</t>
+  </si>
+  <si>
     <t xml:space="preserve">TSH1459</t>
   </si>
   <si>
@@ -2471,6 +2555,9 @@
     <t xml:space="preserve">TSH1506</t>
   </si>
   <si>
+    <t xml:space="preserve">TSH1507</t>
+  </si>
+  <si>
     <t xml:space="preserve">TSH1508</t>
   </si>
   <si>
@@ -2702,15 +2789,45 @@
     <t xml:space="preserve">TSH1595</t>
   </si>
   <si>
+    <t xml:space="preserve">TSH1596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1597</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1598</t>
+  </si>
+  <si>
     <t xml:space="preserve">TSH1599</t>
   </si>
   <si>
+    <t xml:space="preserve">TSH1600</t>
+  </si>
+  <si>
     <t xml:space="preserve">TSH1602</t>
   </si>
   <si>
+    <t xml:space="preserve">TSH1603</t>
+  </si>
+  <si>
     <t xml:space="preserve">TSH1604</t>
   </si>
   <si>
+    <t xml:space="preserve">TSH1605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1606</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1607</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1608</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1609</t>
+  </si>
+  <si>
     <t xml:space="preserve">TSH1611</t>
   </si>
   <si>
@@ -2726,12 +2843,18 @@
     <t xml:space="preserve">TSH1615</t>
   </si>
   <si>
+    <t xml:space="preserve">TSH1616</t>
+  </si>
+  <si>
     <t xml:space="preserve">TSH1617</t>
   </si>
   <si>
     <t xml:space="preserve">TSH1618</t>
   </si>
   <si>
+    <t xml:space="preserve">TSH1619</t>
+  </si>
+  <si>
     <t xml:space="preserve">TSH1620</t>
   </si>
   <si>
@@ -2777,6 +2900,9 @@
     <t xml:space="preserve">TSH1636</t>
   </si>
   <si>
+    <t xml:space="preserve">TSH1637</t>
+  </si>
+  <si>
     <t xml:space="preserve">TSH1638</t>
   </si>
   <si>
@@ -2792,6 +2918,18 @@
     <t xml:space="preserve">TSH1642</t>
   </si>
   <si>
+    <t xml:space="preserve">TSH1643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1644</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1646</t>
+  </si>
+  <si>
     <t xml:space="preserve">TSH1647</t>
   </si>
   <si>
@@ -2807,6 +2945,12 @@
     <t xml:space="preserve">TSH1652</t>
   </si>
   <si>
+    <t xml:space="preserve">TSH1653</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1655</t>
+  </si>
+  <si>
     <t xml:space="preserve">TSH1656</t>
   </si>
   <si>
@@ -2816,12 +2960,213 @@
     <t xml:space="preserve">TSH1658</t>
   </si>
   <si>
+    <t xml:space="preserve">TSH1659</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1660</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1661</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1662</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1663</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1670</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1671</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1677</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1679</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1680</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1681</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1682</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1683</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1687</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1692</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1694</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1696</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1700</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1702</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1704</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1705</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1706</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1709</t>
+  </si>
+  <si>
     <t xml:space="preserve">TSH1710</t>
   </si>
   <si>
+    <t xml:space="preserve">TSH1711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1712</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1714</t>
+  </si>
+  <si>
     <t xml:space="preserve">TSH1715</t>
   </si>
   <si>
+    <t xml:space="preserve">TSH1716</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1718</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1720</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1722</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1724</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1730</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1731</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1733</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1735</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1737</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1739</t>
+  </si>
+  <si>
     <t xml:space="preserve">TSH1740</t>
   </si>
   <si>
@@ -2831,6 +3176,45 @@
     <t xml:space="preserve">TSH1743</t>
   </si>
   <si>
+    <t xml:space="preserve">TSH1745</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1749</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1755</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1756</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1757</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1760</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1761</t>
+  </si>
+  <si>
     <t xml:space="preserve">TSH1762</t>
   </si>
   <si>
@@ -2885,18 +3269,51 @@
     <t xml:space="preserve">TSH1782</t>
   </si>
   <si>
+    <t xml:space="preserve">TSH1783</t>
+  </si>
+  <si>
     <t xml:space="preserve">TSH1784</t>
   </si>
   <si>
     <t xml:space="preserve">TSH1785</t>
   </si>
   <si>
+    <t xml:space="preserve">TSH1786</t>
+  </si>
+  <si>
     <t xml:space="preserve">TSH1787</t>
   </si>
   <si>
+    <t xml:space="preserve">TSH1788</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1790</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1794</t>
+  </si>
+  <si>
     <t xml:space="preserve">TSH1795</t>
   </si>
   <si>
+    <t xml:space="preserve">TSH1796</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1798</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1799</t>
+  </si>
+  <si>
     <t xml:space="preserve">TSH1800</t>
   </si>
   <si>
@@ -2912,24 +3329,102 @@
     <t xml:space="preserve">TSH1804</t>
   </si>
   <si>
+    <t xml:space="preserve">TSH1805</t>
+  </si>
+  <si>
     <t xml:space="preserve">TSH1806</t>
   </si>
   <si>
+    <t xml:space="preserve">TSH1807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1808</t>
+  </si>
+  <si>
     <t xml:space="preserve">TSH1809</t>
   </si>
   <si>
+    <t xml:space="preserve">TSH1811</t>
+  </si>
+  <si>
     <t xml:space="preserve">TSH1812</t>
   </si>
   <si>
+    <t xml:space="preserve">TSH1813</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1815</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1817</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1818</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1819</t>
+  </si>
+  <si>
     <t xml:space="preserve">TSH1820</t>
   </si>
   <si>
+    <t xml:space="preserve">TSH1821</t>
+  </si>
+  <si>
     <t xml:space="preserve">TSH1822</t>
   </si>
   <si>
+    <t xml:space="preserve">TSH1823</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1825</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1827</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1829</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1830</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1831</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1837</t>
+  </si>
+  <si>
     <t xml:space="preserve">TSH1838</t>
   </si>
   <si>
+    <t xml:space="preserve">TSH1839</t>
+  </si>
+  <si>
     <t xml:space="preserve">TSH1840</t>
   </si>
   <si>
@@ -2942,12 +3437,144 @@
     <t xml:space="preserve">TSH1843</t>
   </si>
   <si>
+    <t xml:space="preserve">TSH1844</t>
+  </si>
+  <si>
     <t xml:space="preserve">TSH1845</t>
   </si>
   <si>
     <t xml:space="preserve">TSH1846</t>
   </si>
   <si>
+    <t xml:space="preserve">TSH1849</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1850</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1851</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1853</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1856</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1858</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1860</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1862</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1864</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1865</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1866</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1870</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1876</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1878</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1880</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1881</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1882</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1884</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1886</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1888</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1890</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1892</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1894</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1897</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1898</t>
+  </si>
+  <si>
     <t xml:space="preserve">TSH1900</t>
   </si>
   <si>
@@ -2999,6 +3626,9 @@
     <t xml:space="preserve">TSH1919</t>
   </si>
   <si>
+    <t xml:space="preserve">TSH1920</t>
+  </si>
+  <si>
     <t xml:space="preserve">TSH1921</t>
   </si>
   <si>
@@ -3035,7 +3665,109 @@
     <t xml:space="preserve">TSH1933</t>
   </si>
   <si>
+    <t xml:space="preserve">TSH1934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1935</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1936</t>
+  </si>
+  <si>
     <t xml:space="preserve">TSH1937</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1940</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1942</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1943</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1944</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1946</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1948</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1950</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1952</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1954</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1955</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1956</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1960</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1962</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1964</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1966</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1967</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1968</t>
   </si>
 </sst>
 </file>
@@ -3533,7 +4265,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B28"/>
     </row>
@@ -3557,7 +4289,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B32"/>
     </row>
@@ -3569,7 +4301,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B34"/>
     </row>
@@ -7301,127 +8033,127 @@
     </row>
     <row r="656">
       <c r="A656" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="B656"/>
     </row>
     <row r="657">
       <c r="A657" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="B657"/>
     </row>
     <row r="658">
       <c r="A658" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="B658"/>
     </row>
     <row r="659">
       <c r="A659" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="B659"/>
     </row>
     <row r="660">
       <c r="A660" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="B660"/>
     </row>
     <row r="661">
       <c r="A661" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="B661"/>
     </row>
     <row r="662">
       <c r="A662" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="B662"/>
     </row>
     <row r="663">
       <c r="A663" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="B663"/>
     </row>
     <row r="664">
       <c r="A664" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="B664"/>
     </row>
     <row r="665">
       <c r="A665" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="B665"/>
     </row>
     <row r="666">
       <c r="A666" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="B666"/>
     </row>
     <row r="667">
       <c r="A667" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="B667"/>
     </row>
     <row r="668">
       <c r="A668" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="B668"/>
     </row>
     <row r="669">
       <c r="A669" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="B669"/>
     </row>
     <row r="670">
       <c r="A670" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="B670"/>
     </row>
     <row r="671">
       <c r="A671" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="B671"/>
     </row>
     <row r="672">
       <c r="A672" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="B672"/>
     </row>
     <row r="673">
       <c r="A673" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="B673"/>
     </row>
     <row r="674">
       <c r="A674" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="B674"/>
     </row>
     <row r="675">
       <c r="A675" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="B675"/>
     </row>
     <row r="676">
       <c r="A676" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="B676"/>
     </row>
@@ -7829,133 +8561,133 @@
     </row>
     <row r="744">
       <c r="A744" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="B744"/>
     </row>
     <row r="745">
       <c r="A745" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="B745"/>
     </row>
     <row r="746">
       <c r="A746" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="B746"/>
     </row>
     <row r="747">
       <c r="A747" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="B747"/>
     </row>
     <row r="748">
       <c r="A748" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="B748"/>
     </row>
     <row r="749">
       <c r="A749" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="B749"/>
     </row>
     <row r="750">
       <c r="A750" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="B750"/>
     </row>
     <row r="751">
       <c r="A751" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="B751"/>
     </row>
     <row r="752">
       <c r="A752" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="B752"/>
     </row>
     <row r="753">
       <c r="A753" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="B753"/>
     </row>
     <row r="754">
       <c r="A754" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="B754"/>
     </row>
     <row r="755">
       <c r="A755" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="B755"/>
     </row>
     <row r="756">
       <c r="A756" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="B756"/>
     </row>
     <row r="757">
       <c r="A757" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="B757"/>
     </row>
     <row r="758">
       <c r="A758" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="B758"/>
     </row>
     <row r="759">
       <c r="A759" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="B759"/>
     </row>
     <row r="760">
       <c r="A760" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="B760"/>
     </row>
     <row r="761">
       <c r="A761" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="B761"/>
     </row>
     <row r="762">
       <c r="A762" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="B762"/>
     </row>
     <row r="763">
       <c r="A763" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="B763"/>
     </row>
     <row r="764">
       <c r="A764" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="B764"/>
     </row>
     <row r="765">
       <c r="A765" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="B765"/>
     </row>
@@ -8111,229 +8843,229 @@
     </row>
     <row r="791">
       <c r="A791" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="B791"/>
     </row>
     <row r="792">
       <c r="A792" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="B792"/>
     </row>
     <row r="793">
       <c r="A793" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="B793"/>
     </row>
     <row r="794">
       <c r="A794" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="B794"/>
     </row>
     <row r="795">
       <c r="A795" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="B795"/>
     </row>
     <row r="796">
       <c r="A796" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="B796"/>
     </row>
     <row r="797">
       <c r="A797" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="B797"/>
     </row>
     <row r="798">
       <c r="A798" t="s">
-        <v>786</v>
+        <v>788</v>
       </c>
       <c r="B798"/>
     </row>
     <row r="799">
       <c r="A799" t="s">
-        <v>787</v>
+        <v>789</v>
       </c>
       <c r="B799"/>
     </row>
     <row r="800">
       <c r="A800" t="s">
-        <v>788</v>
+        <v>790</v>
       </c>
       <c r="B800"/>
     </row>
     <row r="801">
       <c r="A801" t="s">
-        <v>788</v>
+        <v>791</v>
       </c>
       <c r="B801"/>
     </row>
     <row r="802">
       <c r="A802" t="s">
-        <v>789</v>
+        <v>792</v>
       </c>
       <c r="B802"/>
     </row>
     <row r="803">
       <c r="A803" t="s">
-        <v>790</v>
+        <v>793</v>
       </c>
       <c r="B803"/>
     </row>
     <row r="804">
       <c r="A804" t="s">
-        <v>791</v>
+        <v>794</v>
       </c>
       <c r="B804"/>
     </row>
     <row r="805">
       <c r="A805" t="s">
-        <v>792</v>
+        <v>795</v>
       </c>
       <c r="B805"/>
     </row>
     <row r="806">
       <c r="A806" t="s">
-        <v>793</v>
+        <v>796</v>
       </c>
       <c r="B806"/>
     </row>
     <row r="807">
       <c r="A807" t="s">
-        <v>794</v>
+        <v>797</v>
       </c>
       <c r="B807"/>
     </row>
     <row r="808">
       <c r="A808" t="s">
-        <v>795</v>
+        <v>798</v>
       </c>
       <c r="B808"/>
     </row>
     <row r="809">
       <c r="A809" t="s">
-        <v>796</v>
+        <v>799</v>
       </c>
       <c r="B809"/>
     </row>
     <row r="810">
       <c r="A810" t="s">
-        <v>797</v>
+        <v>800</v>
       </c>
       <c r="B810"/>
     </row>
     <row r="811">
       <c r="A811" t="s">
-        <v>798</v>
+        <v>801</v>
       </c>
       <c r="B811"/>
     </row>
     <row r="812">
       <c r="A812" t="s">
-        <v>799</v>
+        <v>802</v>
       </c>
       <c r="B812"/>
     </row>
     <row r="813">
       <c r="A813" t="s">
-        <v>800</v>
+        <v>803</v>
       </c>
       <c r="B813"/>
     </row>
     <row r="814">
       <c r="A814" t="s">
-        <v>801</v>
+        <v>804</v>
       </c>
       <c r="B814"/>
     </row>
     <row r="815">
       <c r="A815" t="s">
-        <v>802</v>
+        <v>805</v>
       </c>
       <c r="B815"/>
     </row>
     <row r="816">
       <c r="A816" t="s">
-        <v>803</v>
+        <v>806</v>
       </c>
       <c r="B816"/>
     </row>
     <row r="817">
       <c r="A817" t="s">
-        <v>804</v>
+        <v>807</v>
       </c>
       <c r="B817"/>
     </row>
     <row r="818">
       <c r="A818" t="s">
-        <v>805</v>
+        <v>808</v>
       </c>
       <c r="B818"/>
     </row>
     <row r="819">
       <c r="A819" t="s">
-        <v>806</v>
+        <v>808</v>
       </c>
       <c r="B819"/>
     </row>
     <row r="820">
       <c r="A820" t="s">
-        <v>807</v>
+        <v>809</v>
       </c>
       <c r="B820"/>
     </row>
     <row r="821">
       <c r="A821" t="s">
-        <v>808</v>
+        <v>810</v>
       </c>
       <c r="B821"/>
     </row>
     <row r="822">
       <c r="A822" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="B822"/>
     </row>
     <row r="823">
       <c r="A823" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="B823"/>
     </row>
     <row r="824">
       <c r="A824" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="B824"/>
     </row>
     <row r="825">
       <c r="A825" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="B825"/>
     </row>
     <row r="826">
       <c r="A826" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="B826"/>
     </row>
     <row r="827">
       <c r="A827" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="B827"/>
     </row>
     <row r="828">
       <c r="A828" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="B828"/>
     </row>
@@ -8381,175 +9113,175 @@
     </row>
     <row r="836">
       <c r="A836" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="B836"/>
     </row>
     <row r="837">
       <c r="A837" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="B837"/>
     </row>
     <row r="838">
       <c r="A838" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="B838"/>
     </row>
     <row r="839">
       <c r="A839" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="B839"/>
     </row>
     <row r="840">
       <c r="A840" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="B840"/>
     </row>
     <row r="841">
       <c r="A841" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="B841"/>
     </row>
     <row r="842">
       <c r="A842" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="B842"/>
     </row>
     <row r="843">
       <c r="A843" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="B843"/>
     </row>
     <row r="844">
       <c r="A844" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="B844"/>
     </row>
     <row r="845">
       <c r="A845" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="B845"/>
     </row>
     <row r="846">
       <c r="A846" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="B846"/>
     </row>
     <row r="847">
       <c r="A847" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="B847"/>
     </row>
     <row r="848">
       <c r="A848" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="B848"/>
     </row>
     <row r="849">
       <c r="A849" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="B849"/>
     </row>
     <row r="850">
       <c r="A850" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="B850"/>
     </row>
     <row r="851">
       <c r="A851" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="B851"/>
     </row>
     <row r="852">
       <c r="A852" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="B852"/>
     </row>
     <row r="853">
       <c r="A853" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="B853"/>
     </row>
     <row r="854">
       <c r="A854" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="B854"/>
     </row>
     <row r="855">
       <c r="A855" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="B855"/>
     </row>
     <row r="856">
       <c r="A856" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="B856"/>
     </row>
     <row r="857">
       <c r="A857" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="B857"/>
     </row>
     <row r="858">
       <c r="A858" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="B858"/>
     </row>
     <row r="859">
       <c r="A859" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="B859"/>
     </row>
     <row r="860">
       <c r="A860" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="B860"/>
     </row>
     <row r="861">
       <c r="A861" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="B861"/>
     </row>
     <row r="862">
       <c r="A862" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="B862"/>
     </row>
     <row r="863">
       <c r="A863" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="B863"/>
     </row>
     <row r="864">
       <c r="A864" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="B864"/>
     </row>
@@ -8591,175 +9323,175 @@
     </row>
     <row r="871">
       <c r="A871" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="B871"/>
     </row>
     <row r="872">
       <c r="A872" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="B872"/>
     </row>
     <row r="873">
       <c r="A873" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="B873"/>
     </row>
     <row r="874">
       <c r="A874" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="B874"/>
     </row>
     <row r="875">
       <c r="A875" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="B875"/>
     </row>
     <row r="876">
       <c r="A876" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="B876"/>
     </row>
     <row r="877">
       <c r="A877" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="B877"/>
     </row>
     <row r="878">
       <c r="A878" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="B878"/>
     </row>
     <row r="879">
       <c r="A879" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="B879"/>
     </row>
     <row r="880">
       <c r="A880" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="B880"/>
     </row>
     <row r="881">
       <c r="A881" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="B881"/>
     </row>
     <row r="882">
       <c r="A882" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="B882"/>
     </row>
     <row r="883">
       <c r="A883" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="B883"/>
     </row>
     <row r="884">
       <c r="A884" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="B884"/>
     </row>
     <row r="885">
       <c r="A885" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="B885"/>
     </row>
     <row r="886">
       <c r="A886" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="B886"/>
     </row>
     <row r="887">
       <c r="A887" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="B887"/>
     </row>
     <row r="888">
       <c r="A888" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="B888"/>
     </row>
     <row r="889">
       <c r="A889" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="B889"/>
     </row>
     <row r="890">
       <c r="A890" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="B890"/>
     </row>
     <row r="891">
       <c r="A891" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="B891"/>
     </row>
     <row r="892">
       <c r="A892" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="B892"/>
     </row>
     <row r="893">
       <c r="A893" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="B893"/>
     </row>
     <row r="894">
       <c r="A894" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="B894"/>
     </row>
     <row r="895">
       <c r="A895" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="B895"/>
     </row>
     <row r="896">
       <c r="A896" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="B896"/>
     </row>
     <row r="897">
       <c r="A897" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="B897"/>
     </row>
     <row r="898">
       <c r="A898" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="B898"/>
     </row>
     <row r="899">
       <c r="A899" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="B899"/>
     </row>
@@ -9500,6 +10232,1476 @@
         <v>1007</v>
       </c>
       <c r="B1022"/>
+    </row>
+    <row r="1023">
+      <c r="A1023" t="s">
+        <v>1008</v>
+      </c>
+      <c r="B1023"/>
+    </row>
+    <row r="1024">
+      <c r="A1024" t="s">
+        <v>1009</v>
+      </c>
+      <c r="B1024"/>
+    </row>
+    <row r="1025">
+      <c r="A1025" t="s">
+        <v>1010</v>
+      </c>
+      <c r="B1025"/>
+    </row>
+    <row r="1026">
+      <c r="A1026" t="s">
+        <v>1011</v>
+      </c>
+      <c r="B1026"/>
+    </row>
+    <row r="1027">
+      <c r="A1027" t="s">
+        <v>1012</v>
+      </c>
+      <c r="B1027"/>
+    </row>
+    <row r="1028">
+      <c r="A1028" t="s">
+        <v>1013</v>
+      </c>
+      <c r="B1028"/>
+    </row>
+    <row r="1029">
+      <c r="A1029" t="s">
+        <v>1014</v>
+      </c>
+      <c r="B1029"/>
+    </row>
+    <row r="1030">
+      <c r="A1030" t="s">
+        <v>1015</v>
+      </c>
+      <c r="B1030"/>
+    </row>
+    <row r="1031">
+      <c r="A1031" t="s">
+        <v>1016</v>
+      </c>
+      <c r="B1031"/>
+    </row>
+    <row r="1032">
+      <c r="A1032" t="s">
+        <v>1017</v>
+      </c>
+      <c r="B1032"/>
+    </row>
+    <row r="1033">
+      <c r="A1033" t="s">
+        <v>1018</v>
+      </c>
+      <c r="B1033"/>
+    </row>
+    <row r="1034">
+      <c r="A1034" t="s">
+        <v>1019</v>
+      </c>
+      <c r="B1034"/>
+    </row>
+    <row r="1035">
+      <c r="A1035" t="s">
+        <v>1020</v>
+      </c>
+      <c r="B1035"/>
+    </row>
+    <row r="1036">
+      <c r="A1036" t="s">
+        <v>1021</v>
+      </c>
+      <c r="B1036"/>
+    </row>
+    <row r="1037">
+      <c r="A1037" t="s">
+        <v>1022</v>
+      </c>
+      <c r="B1037"/>
+    </row>
+    <row r="1038">
+      <c r="A1038" t="s">
+        <v>1023</v>
+      </c>
+      <c r="B1038"/>
+    </row>
+    <row r="1039">
+      <c r="A1039" t="s">
+        <v>1024</v>
+      </c>
+      <c r="B1039"/>
+    </row>
+    <row r="1040">
+      <c r="A1040" t="s">
+        <v>1025</v>
+      </c>
+      <c r="B1040"/>
+    </row>
+    <row r="1041">
+      <c r="A1041" t="s">
+        <v>1026</v>
+      </c>
+      <c r="B1041"/>
+    </row>
+    <row r="1042">
+      <c r="A1042" t="s">
+        <v>1027</v>
+      </c>
+      <c r="B1042"/>
+    </row>
+    <row r="1043">
+      <c r="A1043" t="s">
+        <v>1028</v>
+      </c>
+      <c r="B1043"/>
+    </row>
+    <row r="1044">
+      <c r="A1044" t="s">
+        <v>1029</v>
+      </c>
+      <c r="B1044"/>
+    </row>
+    <row r="1045">
+      <c r="A1045" t="s">
+        <v>1030</v>
+      </c>
+      <c r="B1045"/>
+    </row>
+    <row r="1046">
+      <c r="A1046" t="s">
+        <v>1031</v>
+      </c>
+      <c r="B1046"/>
+    </row>
+    <row r="1047">
+      <c r="A1047" t="s">
+        <v>1032</v>
+      </c>
+      <c r="B1047"/>
+    </row>
+    <row r="1048">
+      <c r="A1048" t="s">
+        <v>1033</v>
+      </c>
+      <c r="B1048"/>
+    </row>
+    <row r="1049">
+      <c r="A1049" t="s">
+        <v>1034</v>
+      </c>
+      <c r="B1049"/>
+    </row>
+    <row r="1050">
+      <c r="A1050" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B1050"/>
+    </row>
+    <row r="1051">
+      <c r="A1051" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B1051"/>
+    </row>
+    <row r="1052">
+      <c r="A1052" t="s">
+        <v>1037</v>
+      </c>
+      <c r="B1052"/>
+    </row>
+    <row r="1053">
+      <c r="A1053" t="s">
+        <v>1038</v>
+      </c>
+      <c r="B1053"/>
+    </row>
+    <row r="1054">
+      <c r="A1054" t="s">
+        <v>1039</v>
+      </c>
+      <c r="B1054"/>
+    </row>
+    <row r="1055">
+      <c r="A1055" t="s">
+        <v>1040</v>
+      </c>
+      <c r="B1055"/>
+    </row>
+    <row r="1056">
+      <c r="A1056" t="s">
+        <v>1041</v>
+      </c>
+      <c r="B1056"/>
+    </row>
+    <row r="1057">
+      <c r="A1057" t="s">
+        <v>1042</v>
+      </c>
+      <c r="B1057"/>
+    </row>
+    <row r="1058">
+      <c r="A1058" t="s">
+        <v>1043</v>
+      </c>
+      <c r="B1058"/>
+    </row>
+    <row r="1059">
+      <c r="A1059" t="s">
+        <v>1044</v>
+      </c>
+      <c r="B1059"/>
+    </row>
+    <row r="1060">
+      <c r="A1060" t="s">
+        <v>1045</v>
+      </c>
+      <c r="B1060"/>
+    </row>
+    <row r="1061">
+      <c r="A1061" t="s">
+        <v>1046</v>
+      </c>
+      <c r="B1061"/>
+    </row>
+    <row r="1062">
+      <c r="A1062" t="s">
+        <v>1047</v>
+      </c>
+      <c r="B1062"/>
+    </row>
+    <row r="1063">
+      <c r="A1063" t="s">
+        <v>1048</v>
+      </c>
+      <c r="B1063"/>
+    </row>
+    <row r="1064">
+      <c r="A1064" t="s">
+        <v>1049</v>
+      </c>
+      <c r="B1064"/>
+    </row>
+    <row r="1065">
+      <c r="A1065" t="s">
+        <v>1050</v>
+      </c>
+      <c r="B1065"/>
+    </row>
+    <row r="1066">
+      <c r="A1066" t="s">
+        <v>1051</v>
+      </c>
+      <c r="B1066"/>
+    </row>
+    <row r="1067">
+      <c r="A1067" t="s">
+        <v>1052</v>
+      </c>
+      <c r="B1067"/>
+    </row>
+    <row r="1068">
+      <c r="A1068" t="s">
+        <v>1053</v>
+      </c>
+      <c r="B1068"/>
+    </row>
+    <row r="1069">
+      <c r="A1069" t="s">
+        <v>1054</v>
+      </c>
+      <c r="B1069"/>
+    </row>
+    <row r="1070">
+      <c r="A1070" t="s">
+        <v>1055</v>
+      </c>
+      <c r="B1070"/>
+    </row>
+    <row r="1071">
+      <c r="A1071" t="s">
+        <v>1056</v>
+      </c>
+      <c r="B1071"/>
+    </row>
+    <row r="1072">
+      <c r="A1072" t="s">
+        <v>1057</v>
+      </c>
+      <c r="B1072"/>
+    </row>
+    <row r="1073">
+      <c r="A1073" t="s">
+        <v>1058</v>
+      </c>
+      <c r="B1073"/>
+    </row>
+    <row r="1074">
+      <c r="A1074" t="s">
+        <v>1059</v>
+      </c>
+      <c r="B1074"/>
+    </row>
+    <row r="1075">
+      <c r="A1075" t="s">
+        <v>1060</v>
+      </c>
+      <c r="B1075"/>
+    </row>
+    <row r="1076">
+      <c r="A1076" t="s">
+        <v>1061</v>
+      </c>
+      <c r="B1076"/>
+    </row>
+    <row r="1077">
+      <c r="A1077" t="s">
+        <v>1062</v>
+      </c>
+      <c r="B1077"/>
+    </row>
+    <row r="1078">
+      <c r="A1078" t="s">
+        <v>1063</v>
+      </c>
+      <c r="B1078"/>
+    </row>
+    <row r="1079">
+      <c r="A1079" t="s">
+        <v>1064</v>
+      </c>
+      <c r="B1079"/>
+    </row>
+    <row r="1080">
+      <c r="A1080" t="s">
+        <v>1065</v>
+      </c>
+      <c r="B1080"/>
+    </row>
+    <row r="1081">
+      <c r="A1081" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B1081"/>
+    </row>
+    <row r="1082">
+      <c r="A1082" t="s">
+        <v>1067</v>
+      </c>
+      <c r="B1082"/>
+    </row>
+    <row r="1083">
+      <c r="A1083" t="s">
+        <v>1068</v>
+      </c>
+      <c r="B1083"/>
+    </row>
+    <row r="1084">
+      <c r="A1084" t="s">
+        <v>1069</v>
+      </c>
+      <c r="B1084"/>
+    </row>
+    <row r="1085">
+      <c r="A1085" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B1085"/>
+    </row>
+    <row r="1086">
+      <c r="A1086" t="s">
+        <v>1071</v>
+      </c>
+      <c r="B1086"/>
+    </row>
+    <row r="1087">
+      <c r="A1087" t="s">
+        <v>1072</v>
+      </c>
+      <c r="B1087"/>
+    </row>
+    <row r="1088">
+      <c r="A1088" t="s">
+        <v>1073</v>
+      </c>
+      <c r="B1088"/>
+    </row>
+    <row r="1089">
+      <c r="A1089" t="s">
+        <v>1074</v>
+      </c>
+      <c r="B1089"/>
+    </row>
+    <row r="1090">
+      <c r="A1090" t="s">
+        <v>1075</v>
+      </c>
+      <c r="B1090"/>
+    </row>
+    <row r="1091">
+      <c r="A1091" t="s">
+        <v>1076</v>
+      </c>
+      <c r="B1091"/>
+    </row>
+    <row r="1092">
+      <c r="A1092" t="s">
+        <v>1077</v>
+      </c>
+      <c r="B1092"/>
+    </row>
+    <row r="1093">
+      <c r="A1093" t="s">
+        <v>1078</v>
+      </c>
+      <c r="B1093"/>
+    </row>
+    <row r="1094">
+      <c r="A1094" t="s">
+        <v>1079</v>
+      </c>
+      <c r="B1094"/>
+    </row>
+    <row r="1095">
+      <c r="A1095" t="s">
+        <v>1080</v>
+      </c>
+      <c r="B1095"/>
+    </row>
+    <row r="1096">
+      <c r="A1096" t="s">
+        <v>1081</v>
+      </c>
+      <c r="B1096"/>
+    </row>
+    <row r="1097">
+      <c r="A1097" t="s">
+        <v>1082</v>
+      </c>
+      <c r="B1097"/>
+    </row>
+    <row r="1098">
+      <c r="A1098" t="s">
+        <v>1083</v>
+      </c>
+      <c r="B1098"/>
+    </row>
+    <row r="1099">
+      <c r="A1099" t="s">
+        <v>1084</v>
+      </c>
+      <c r="B1099"/>
+    </row>
+    <row r="1100">
+      <c r="A1100" t="s">
+        <v>1085</v>
+      </c>
+      <c r="B1100"/>
+    </row>
+    <row r="1101">
+      <c r="A1101" t="s">
+        <v>1086</v>
+      </c>
+      <c r="B1101"/>
+    </row>
+    <row r="1102">
+      <c r="A1102" t="s">
+        <v>1087</v>
+      </c>
+      <c r="B1102"/>
+    </row>
+    <row r="1103">
+      <c r="A1103" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1103"/>
+    </row>
+    <row r="1104">
+      <c r="A1104" t="s">
+        <v>1089</v>
+      </c>
+      <c r="B1104"/>
+    </row>
+    <row r="1105">
+      <c r="A1105" t="s">
+        <v>1090</v>
+      </c>
+      <c r="B1105"/>
+    </row>
+    <row r="1106">
+      <c r="A1106" t="s">
+        <v>1091</v>
+      </c>
+      <c r="B1106"/>
+    </row>
+    <row r="1107">
+      <c r="A1107" t="s">
+        <v>1092</v>
+      </c>
+      <c r="B1107"/>
+    </row>
+    <row r="1108">
+      <c r="A1108" t="s">
+        <v>1093</v>
+      </c>
+      <c r="B1108"/>
+    </row>
+    <row r="1109">
+      <c r="A1109" t="s">
+        <v>1094</v>
+      </c>
+      <c r="B1109"/>
+    </row>
+    <row r="1110">
+      <c r="A1110" t="s">
+        <v>1095</v>
+      </c>
+      <c r="B1110"/>
+    </row>
+    <row r="1111">
+      <c r="A1111" t="s">
+        <v>1096</v>
+      </c>
+      <c r="B1111"/>
+    </row>
+    <row r="1112">
+      <c r="A1112" t="s">
+        <v>1097</v>
+      </c>
+      <c r="B1112"/>
+    </row>
+    <row r="1113">
+      <c r="A1113" t="s">
+        <v>1098</v>
+      </c>
+      <c r="B1113"/>
+    </row>
+    <row r="1114">
+      <c r="A1114" t="s">
+        <v>1099</v>
+      </c>
+      <c r="B1114"/>
+    </row>
+    <row r="1115">
+      <c r="A1115" t="s">
+        <v>1100</v>
+      </c>
+      <c r="B1115"/>
+    </row>
+    <row r="1116">
+      <c r="A1116" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B1116"/>
+    </row>
+    <row r="1117">
+      <c r="A1117" t="s">
+        <v>1102</v>
+      </c>
+      <c r="B1117"/>
+    </row>
+    <row r="1118">
+      <c r="A1118" t="s">
+        <v>1103</v>
+      </c>
+      <c r="B1118"/>
+    </row>
+    <row r="1119">
+      <c r="A1119" t="s">
+        <v>1104</v>
+      </c>
+      <c r="B1119"/>
+    </row>
+    <row r="1120">
+      <c r="A1120" t="s">
+        <v>1105</v>
+      </c>
+      <c r="B1120"/>
+    </row>
+    <row r="1121">
+      <c r="A1121" t="s">
+        <v>1106</v>
+      </c>
+      <c r="B1121"/>
+    </row>
+    <row r="1122">
+      <c r="A1122" t="s">
+        <v>1107</v>
+      </c>
+      <c r="B1122"/>
+    </row>
+    <row r="1123">
+      <c r="A1123" t="s">
+        <v>1108</v>
+      </c>
+      <c r="B1123"/>
+    </row>
+    <row r="1124">
+      <c r="A1124" t="s">
+        <v>1109</v>
+      </c>
+      <c r="B1124"/>
+    </row>
+    <row r="1125">
+      <c r="A1125" t="s">
+        <v>1110</v>
+      </c>
+      <c r="B1125"/>
+    </row>
+    <row r="1126">
+      <c r="A1126" t="s">
+        <v>1111</v>
+      </c>
+      <c r="B1126"/>
+    </row>
+    <row r="1127">
+      <c r="A1127" t="s">
+        <v>1112</v>
+      </c>
+      <c r="B1127"/>
+    </row>
+    <row r="1128">
+      <c r="A1128" t="s">
+        <v>1113</v>
+      </c>
+      <c r="B1128"/>
+    </row>
+    <row r="1129">
+      <c r="A1129" t="s">
+        <v>1114</v>
+      </c>
+      <c r="B1129"/>
+    </row>
+    <row r="1130">
+      <c r="A1130" t="s">
+        <v>1115</v>
+      </c>
+      <c r="B1130"/>
+    </row>
+    <row r="1131">
+      <c r="A1131" t="s">
+        <v>1116</v>
+      </c>
+      <c r="B1131"/>
+    </row>
+    <row r="1132">
+      <c r="A1132" t="s">
+        <v>1117</v>
+      </c>
+      <c r="B1132"/>
+    </row>
+    <row r="1133">
+      <c r="A1133" t="s">
+        <v>1118</v>
+      </c>
+      <c r="B1133"/>
+    </row>
+    <row r="1134">
+      <c r="A1134" t="s">
+        <v>1119</v>
+      </c>
+      <c r="B1134"/>
+    </row>
+    <row r="1135">
+      <c r="A1135" t="s">
+        <v>1120</v>
+      </c>
+      <c r="B1135"/>
+    </row>
+    <row r="1136">
+      <c r="A1136" t="s">
+        <v>1121</v>
+      </c>
+      <c r="B1136"/>
+    </row>
+    <row r="1137">
+      <c r="A1137" t="s">
+        <v>1122</v>
+      </c>
+      <c r="B1137"/>
+    </row>
+    <row r="1138">
+      <c r="A1138" t="s">
+        <v>1123</v>
+      </c>
+      <c r="B1138"/>
+    </row>
+    <row r="1139">
+      <c r="A1139" t="s">
+        <v>1124</v>
+      </c>
+      <c r="B1139"/>
+    </row>
+    <row r="1140">
+      <c r="A1140" t="s">
+        <v>1125</v>
+      </c>
+      <c r="B1140"/>
+    </row>
+    <row r="1141">
+      <c r="A1141" t="s">
+        <v>1126</v>
+      </c>
+      <c r="B1141"/>
+    </row>
+    <row r="1142">
+      <c r="A1142" t="s">
+        <v>1127</v>
+      </c>
+      <c r="B1142"/>
+    </row>
+    <row r="1143">
+      <c r="A1143" t="s">
+        <v>1128</v>
+      </c>
+      <c r="B1143"/>
+    </row>
+    <row r="1144">
+      <c r="A1144" t="s">
+        <v>1129</v>
+      </c>
+      <c r="B1144"/>
+    </row>
+    <row r="1145">
+      <c r="A1145" t="s">
+        <v>1130</v>
+      </c>
+      <c r="B1145"/>
+    </row>
+    <row r="1146">
+      <c r="A1146" t="s">
+        <v>1131</v>
+      </c>
+      <c r="B1146"/>
+    </row>
+    <row r="1147">
+      <c r="A1147" t="s">
+        <v>1132</v>
+      </c>
+      <c r="B1147"/>
+    </row>
+    <row r="1148">
+      <c r="A1148" t="s">
+        <v>1133</v>
+      </c>
+      <c r="B1148"/>
+    </row>
+    <row r="1149">
+      <c r="A1149" t="s">
+        <v>1134</v>
+      </c>
+      <c r="B1149"/>
+    </row>
+    <row r="1150">
+      <c r="A1150" t="s">
+        <v>1135</v>
+      </c>
+      <c r="B1150"/>
+    </row>
+    <row r="1151">
+      <c r="A1151" t="s">
+        <v>1136</v>
+      </c>
+      <c r="B1151"/>
+    </row>
+    <row r="1152">
+      <c r="A1152" t="s">
+        <v>1137</v>
+      </c>
+      <c r="B1152"/>
+    </row>
+    <row r="1153">
+      <c r="A1153" t="s">
+        <v>1138</v>
+      </c>
+      <c r="B1153"/>
+    </row>
+    <row r="1154">
+      <c r="A1154" t="s">
+        <v>1139</v>
+      </c>
+      <c r="B1154"/>
+    </row>
+    <row r="1155">
+      <c r="A1155" t="s">
+        <v>1140</v>
+      </c>
+      <c r="B1155"/>
+    </row>
+    <row r="1156">
+      <c r="A1156" t="s">
+        <v>1141</v>
+      </c>
+      <c r="B1156"/>
+    </row>
+    <row r="1157">
+      <c r="A1157" t="s">
+        <v>1142</v>
+      </c>
+      <c r="B1157"/>
+    </row>
+    <row r="1158">
+      <c r="A1158" t="s">
+        <v>1143</v>
+      </c>
+      <c r="B1158"/>
+    </row>
+    <row r="1159">
+      <c r="A1159" t="s">
+        <v>1144</v>
+      </c>
+      <c r="B1159"/>
+    </row>
+    <row r="1160">
+      <c r="A1160" t="s">
+        <v>1145</v>
+      </c>
+      <c r="B1160"/>
+    </row>
+    <row r="1161">
+      <c r="A1161" t="s">
+        <v>1146</v>
+      </c>
+      <c r="B1161"/>
+    </row>
+    <row r="1162">
+      <c r="A1162" t="s">
+        <v>1147</v>
+      </c>
+      <c r="B1162"/>
+    </row>
+    <row r="1163">
+      <c r="A1163" t="s">
+        <v>1148</v>
+      </c>
+      <c r="B1163"/>
+    </row>
+    <row r="1164">
+      <c r="A1164" t="s">
+        <v>1149</v>
+      </c>
+      <c r="B1164"/>
+    </row>
+    <row r="1165">
+      <c r="A1165" t="s">
+        <v>1150</v>
+      </c>
+      <c r="B1165"/>
+    </row>
+    <row r="1166">
+      <c r="A1166" t="s">
+        <v>1150</v>
+      </c>
+      <c r="B1166"/>
+    </row>
+    <row r="1167">
+      <c r="A1167" t="s">
+        <v>1151</v>
+      </c>
+      <c r="B1167"/>
+    </row>
+    <row r="1168">
+      <c r="A1168" t="s">
+        <v>1152</v>
+      </c>
+      <c r="B1168"/>
+    </row>
+    <row r="1169">
+      <c r="A1169" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B1169"/>
+    </row>
+    <row r="1170">
+      <c r="A1170" t="s">
+        <v>1154</v>
+      </c>
+      <c r="B1170"/>
+    </row>
+    <row r="1171">
+      <c r="A1171" t="s">
+        <v>1155</v>
+      </c>
+      <c r="B1171"/>
+    </row>
+    <row r="1172">
+      <c r="A1172" t="s">
+        <v>1156</v>
+      </c>
+      <c r="B1172"/>
+    </row>
+    <row r="1173">
+      <c r="A1173" t="s">
+        <v>1157</v>
+      </c>
+      <c r="B1173"/>
+    </row>
+    <row r="1174">
+      <c r="A1174" t="s">
+        <v>1158</v>
+      </c>
+      <c r="B1174"/>
+    </row>
+    <row r="1175">
+      <c r="A1175" t="s">
+        <v>1159</v>
+      </c>
+      <c r="B1175"/>
+    </row>
+    <row r="1176">
+      <c r="A1176" t="s">
+        <v>1160</v>
+      </c>
+      <c r="B1176"/>
+    </row>
+    <row r="1177">
+      <c r="A1177" t="s">
+        <v>1161</v>
+      </c>
+      <c r="B1177"/>
+    </row>
+    <row r="1178">
+      <c r="A1178" t="s">
+        <v>1162</v>
+      </c>
+      <c r="B1178"/>
+    </row>
+    <row r="1179">
+      <c r="A1179" t="s">
+        <v>1163</v>
+      </c>
+      <c r="B1179"/>
+    </row>
+    <row r="1180">
+      <c r="A1180" t="s">
+        <v>1164</v>
+      </c>
+      <c r="B1180"/>
+    </row>
+    <row r="1181">
+      <c r="A1181" t="s">
+        <v>1165</v>
+      </c>
+      <c r="B1181"/>
+    </row>
+    <row r="1182">
+      <c r="A1182" t="s">
+        <v>1166</v>
+      </c>
+      <c r="B1182"/>
+    </row>
+    <row r="1183">
+      <c r="A1183" t="s">
+        <v>1167</v>
+      </c>
+      <c r="B1183"/>
+    </row>
+    <row r="1184">
+      <c r="A1184" t="s">
+        <v>1168</v>
+      </c>
+      <c r="B1184"/>
+    </row>
+    <row r="1185">
+      <c r="A1185" t="s">
+        <v>1169</v>
+      </c>
+      <c r="B1185"/>
+    </row>
+    <row r="1186">
+      <c r="A1186" t="s">
+        <v>1170</v>
+      </c>
+      <c r="B1186"/>
+    </row>
+    <row r="1187">
+      <c r="A1187" t="s">
+        <v>1171</v>
+      </c>
+      <c r="B1187"/>
+    </row>
+    <row r="1188">
+      <c r="A1188" t="s">
+        <v>1172</v>
+      </c>
+      <c r="B1188"/>
+    </row>
+    <row r="1189">
+      <c r="A1189" t="s">
+        <v>1173</v>
+      </c>
+      <c r="B1189"/>
+    </row>
+    <row r="1190">
+      <c r="A1190" t="s">
+        <v>1174</v>
+      </c>
+      <c r="B1190"/>
+    </row>
+    <row r="1191">
+      <c r="A1191" t="s">
+        <v>1175</v>
+      </c>
+      <c r="B1191"/>
+    </row>
+    <row r="1192">
+      <c r="A1192" t="s">
+        <v>1176</v>
+      </c>
+      <c r="B1192"/>
+    </row>
+    <row r="1193">
+      <c r="A1193" t="s">
+        <v>1177</v>
+      </c>
+      <c r="B1193"/>
+    </row>
+    <row r="1194">
+      <c r="A1194" t="s">
+        <v>1178</v>
+      </c>
+      <c r="B1194"/>
+    </row>
+    <row r="1195">
+      <c r="A1195" t="s">
+        <v>1179</v>
+      </c>
+      <c r="B1195"/>
+    </row>
+    <row r="1196">
+      <c r="A1196" t="s">
+        <v>1180</v>
+      </c>
+      <c r="B1196"/>
+    </row>
+    <row r="1197">
+      <c r="A1197" t="s">
+        <v>1181</v>
+      </c>
+      <c r="B1197"/>
+    </row>
+    <row r="1198">
+      <c r="A1198" t="s">
+        <v>1182</v>
+      </c>
+      <c r="B1198"/>
+    </row>
+    <row r="1199">
+      <c r="A1199" t="s">
+        <v>1183</v>
+      </c>
+      <c r="B1199"/>
+    </row>
+    <row r="1200">
+      <c r="A1200" t="s">
+        <v>1184</v>
+      </c>
+      <c r="B1200"/>
+    </row>
+    <row r="1201">
+      <c r="A1201" t="s">
+        <v>1185</v>
+      </c>
+      <c r="B1201"/>
+    </row>
+    <row r="1202">
+      <c r="A1202" t="s">
+        <v>1186</v>
+      </c>
+      <c r="B1202"/>
+    </row>
+    <row r="1203">
+      <c r="A1203" t="s">
+        <v>1187</v>
+      </c>
+      <c r="B1203"/>
+    </row>
+    <row r="1204">
+      <c r="A1204" t="s">
+        <v>1188</v>
+      </c>
+      <c r="B1204"/>
+    </row>
+    <row r="1205">
+      <c r="A1205" t="s">
+        <v>1189</v>
+      </c>
+      <c r="B1205"/>
+    </row>
+    <row r="1206">
+      <c r="A1206" t="s">
+        <v>1190</v>
+      </c>
+      <c r="B1206"/>
+    </row>
+    <row r="1207">
+      <c r="A1207" t="s">
+        <v>1191</v>
+      </c>
+      <c r="B1207"/>
+    </row>
+    <row r="1208">
+      <c r="A1208" t="s">
+        <v>1192</v>
+      </c>
+      <c r="B1208"/>
+    </row>
+    <row r="1209">
+      <c r="A1209" t="s">
+        <v>1193</v>
+      </c>
+      <c r="B1209"/>
+    </row>
+    <row r="1210">
+      <c r="A1210" t="s">
+        <v>1194</v>
+      </c>
+      <c r="B1210"/>
+    </row>
+    <row r="1211">
+      <c r="A1211" t="s">
+        <v>1195</v>
+      </c>
+      <c r="B1211"/>
+    </row>
+    <row r="1212">
+      <c r="A1212" t="s">
+        <v>1196</v>
+      </c>
+      <c r="B1212"/>
+    </row>
+    <row r="1213">
+      <c r="A1213" t="s">
+        <v>1197</v>
+      </c>
+      <c r="B1213"/>
+    </row>
+    <row r="1214">
+      <c r="A1214" t="s">
+        <v>1198</v>
+      </c>
+      <c r="B1214"/>
+    </row>
+    <row r="1215">
+      <c r="A1215" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B1215"/>
+    </row>
+    <row r="1216">
+      <c r="A1216" t="s">
+        <v>1200</v>
+      </c>
+      <c r="B1216"/>
+    </row>
+    <row r="1217">
+      <c r="A1217" t="s">
+        <v>1201</v>
+      </c>
+      <c r="B1217"/>
+    </row>
+    <row r="1218">
+      <c r="A1218" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B1218"/>
+    </row>
+    <row r="1219">
+      <c r="A1219" t="s">
+        <v>1203</v>
+      </c>
+      <c r="B1219"/>
+    </row>
+    <row r="1220">
+      <c r="A1220" t="s">
+        <v>1204</v>
+      </c>
+      <c r="B1220"/>
+    </row>
+    <row r="1221">
+      <c r="A1221" t="s">
+        <v>1205</v>
+      </c>
+      <c r="B1221"/>
+    </row>
+    <row r="1222">
+      <c r="A1222" t="s">
+        <v>1206</v>
+      </c>
+      <c r="B1222"/>
+    </row>
+    <row r="1223">
+      <c r="A1223" t="s">
+        <v>1207</v>
+      </c>
+      <c r="B1223"/>
+    </row>
+    <row r="1224">
+      <c r="A1224" t="s">
+        <v>1208</v>
+      </c>
+      <c r="B1224"/>
+    </row>
+    <row r="1225">
+      <c r="A1225" t="s">
+        <v>1209</v>
+      </c>
+      <c r="B1225"/>
+    </row>
+    <row r="1226">
+      <c r="A1226" t="s">
+        <v>1210</v>
+      </c>
+      <c r="B1226"/>
+    </row>
+    <row r="1227">
+      <c r="A1227" t="s">
+        <v>1211</v>
+      </c>
+      <c r="B1227"/>
+    </row>
+    <row r="1228">
+      <c r="A1228" t="s">
+        <v>1212</v>
+      </c>
+      <c r="B1228"/>
+    </row>
+    <row r="1229">
+      <c r="A1229" t="s">
+        <v>1213</v>
+      </c>
+      <c r="B1229"/>
+    </row>
+    <row r="1230">
+      <c r="A1230" t="s">
+        <v>1214</v>
+      </c>
+      <c r="B1230"/>
+    </row>
+    <row r="1231">
+      <c r="A1231" t="s">
+        <v>1215</v>
+      </c>
+      <c r="B1231"/>
+    </row>
+    <row r="1232">
+      <c r="A1232" t="s">
+        <v>1216</v>
+      </c>
+      <c r="B1232"/>
+    </row>
+    <row r="1233">
+      <c r="A1233" t="s">
+        <v>1217</v>
+      </c>
+      <c r="B1233"/>
+    </row>
+    <row r="1234">
+      <c r="A1234" t="s">
+        <v>1218</v>
+      </c>
+      <c r="B1234"/>
+    </row>
+    <row r="1235">
+      <c r="A1235" t="s">
+        <v>1219</v>
+      </c>
+      <c r="B1235"/>
+    </row>
+    <row r="1236">
+      <c r="A1236" t="s">
+        <v>1220</v>
+      </c>
+      <c r="B1236"/>
+    </row>
+    <row r="1237">
+      <c r="A1237" t="s">
+        <v>1221</v>
+      </c>
+      <c r="B1237"/>
+    </row>
+    <row r="1238">
+      <c r="A1238" t="s">
+        <v>1222</v>
+      </c>
+      <c r="B1238"/>
+    </row>
+    <row r="1239">
+      <c r="A1239" t="s">
+        <v>1223</v>
+      </c>
+      <c r="B1239"/>
+    </row>
+    <row r="1240">
+      <c r="A1240" t="s">
+        <v>1224</v>
+      </c>
+      <c r="B1240"/>
+    </row>
+    <row r="1241">
+      <c r="A1241" t="s">
+        <v>1225</v>
+      </c>
+      <c r="B1241"/>
+    </row>
+    <row r="1242">
+      <c r="A1242" t="s">
+        <v>1226</v>
+      </c>
+      <c r="B1242"/>
+    </row>
+    <row r="1243">
+      <c r="A1243" t="s">
+        <v>1227</v>
+      </c>
+      <c r="B1243"/>
+    </row>
+    <row r="1244">
+      <c r="A1244" t="s">
+        <v>1228</v>
+      </c>
+      <c r="B1244"/>
+    </row>
+    <row r="1245">
+      <c r="A1245" t="s">
+        <v>1229</v>
+      </c>
+      <c r="B1245"/>
+    </row>
+    <row r="1246">
+      <c r="A1246" t="s">
+        <v>1230</v>
+      </c>
+      <c r="B1246"/>
+    </row>
+    <row r="1247">
+      <c r="A1247" t="s">
+        <v>1231</v>
+      </c>
+      <c r="B1247"/>
+    </row>
+    <row r="1248">
+      <c r="A1248" t="s">
+        <v>1232</v>
+      </c>
+      <c r="B1248"/>
+    </row>
+    <row r="1249">
+      <c r="A1249" t="s">
+        <v>1233</v>
+      </c>
+      <c r="B1249"/>
+    </row>
+    <row r="1250">
+      <c r="A1250" t="s">
+        <v>1234</v>
+      </c>
+      <c r="B1250"/>
+    </row>
+    <row r="1251">
+      <c r="A1251" t="s">
+        <v>1235</v>
+      </c>
+      <c r="B1251"/>
+    </row>
+    <row r="1252">
+      <c r="A1252" t="s">
+        <v>1236</v>
+      </c>
+      <c r="B1252"/>
+    </row>
+    <row r="1253">
+      <c r="A1253" t="s">
+        <v>1237</v>
+      </c>
+      <c r="B1253"/>
+    </row>
+    <row r="1254">
+      <c r="A1254" t="s">
+        <v>1238</v>
+      </c>
+      <c r="B1254"/>
+    </row>
+    <row r="1255">
+      <c r="A1255" t="s">
+        <v>1239</v>
+      </c>
+      <c r="B1255"/>
+    </row>
+    <row r="1256">
+      <c r="A1256" t="s">
+        <v>1240</v>
+      </c>
+      <c r="B1256"/>
+    </row>
+    <row r="1257">
+      <c r="A1257" t="s">
+        <v>1241</v>
+      </c>
+      <c r="B1257"/>
+    </row>
+    <row r="1258">
+      <c r="A1258" t="s">
+        <v>1242</v>
+      </c>
+      <c r="B1258"/>
+    </row>
+    <row r="1259">
+      <c r="A1259" t="s">
+        <v>1243</v>
+      </c>
+      <c r="B1259"/>
+    </row>
+    <row r="1260">
+      <c r="A1260" t="s">
+        <v>1244</v>
+      </c>
+      <c r="B1260"/>
+    </row>
+    <row r="1261">
+      <c r="A1261" t="s">
+        <v>1245</v>
+      </c>
+      <c r="B1261"/>
+    </row>
+    <row r="1262">
+      <c r="A1262" t="s">
+        <v>1246</v>
+      </c>
+      <c r="B1262"/>
+    </row>
+    <row r="1263">
+      <c r="A1263" t="s">
+        <v>1247</v>
+      </c>
+      <c r="B1263"/>
+    </row>
+    <row r="1264">
+      <c r="A1264" t="s">
+        <v>1248</v>
+      </c>
+      <c r="B1264"/>
+    </row>
+    <row r="1265">
+      <c r="A1265" t="s">
+        <v>1249</v>
+      </c>
+      <c r="B1265"/>
+    </row>
+    <row r="1266">
+      <c r="A1266" t="s">
+        <v>1250</v>
+      </c>
+      <c r="B1266"/>
+    </row>
+    <row r="1267">
+      <c r="A1267" t="s">
+        <v>1251</v>
+      </c>
+      <c r="B1267"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
